--- a/public/templates/plantilla-carga-proyecto.xlsx
+++ b/public/templates/plantilla-carga-proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\works\terra-prime-app\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDFD8D-22CB-4552-807A-5E707C3B2C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B541E209-B2D0-4654-B4D4-CBD62FFC0642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="11160" windowWidth="38700" windowHeight="15345" xr2:uid="{6CE20324-C752-4155-8E34-19BBAB004339}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="38700" windowHeight="15345" xr2:uid="{6CE20324-C752-4155-8E34-19BBAB004339}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>5000</v>
       </c>
       <c r="F4" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
